--- a/Gantt_projektterv.xlsx
+++ b/Gantt_projektterv.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B6BAB16-3826-441F-B219-CFF4BD5D08E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF04B1D-212B-4B4A-9019-EFF2CCDEBF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
   <si>
     <t>Projekttervező</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>--</t>
+  </si>
+  <si>
+    <t>Prezentáció</t>
   </si>
 </sst>
 </file>
@@ -589,12 +592,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -624,33 +654,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -674,27 +677,7 @@
     <cellStyle name="Terv jelmagyarázata" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Tevékenység" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -1084,13 +1067,13 @@
   <dimension ref="B1:HI30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="19" style="38" customWidth="1"/>
+    <col min="2" max="2" width="19" style="24" customWidth="1"/>
     <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
@@ -1100,7 +1083,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:217" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="11"/>
@@ -1110,7 +1093,7 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="2:217" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="19"/>
@@ -1124,65 +1107,65 @@
         <v>1</v>
       </c>
       <c r="J2" s="13"/>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
       <c r="P2" s="14"/>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="28"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="37"/>
       <c r="V2" s="15"/>
-      <c r="W2" s="31" t="s">
+      <c r="W2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="32"/>
+      <c r="X2" s="41"/>
       <c r="Y2" s="20"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="21" t="s">
+      <c r="AA2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="30"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="39"/>
       <c r="AH2" s="17"/>
-      <c r="AI2" s="21" t="s">
+      <c r="AI2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
     </row>
     <row r="3" spans="2:217" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -1209,12 +1192,12 @@
       <c r="AA3" s="9"/>
     </row>
     <row r="4" spans="2:217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="2">
         <v>1</v>
       </c>
@@ -1847,7 +1830,7 @@
       </c>
     </row>
     <row r="5" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5">
@@ -1867,7 +1850,7 @@
       </c>
     </row>
     <row r="6" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="5">
@@ -1887,7 +1870,7 @@
       </c>
     </row>
     <row r="7" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="5">
@@ -1907,13 +1890,13 @@
       </c>
     </row>
     <row r="8" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="25">
         <v>28</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="25">
         <v>21</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1927,7 +1910,7 @@
       </c>
     </row>
     <row r="9" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5">
@@ -1947,13 +1930,13 @@
       </c>
     </row>
     <row r="10" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="5">
         <v>48</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="27">
         <v>50</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -1967,7 +1950,7 @@
       </c>
     </row>
     <row r="11" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="26" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="5">
@@ -1987,7 +1970,7 @@
       </c>
     </row>
     <row r="12" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="5">
@@ -2007,7 +1990,7 @@
       </c>
     </row>
     <row r="13" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="26" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="5">
@@ -2027,7 +2010,7 @@
       </c>
     </row>
     <row r="14" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="26" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="5">
@@ -2047,7 +2030,7 @@
       </c>
     </row>
     <row r="15" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="7">
@@ -2067,7 +2050,7 @@
       </c>
     </row>
     <row r="16" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="26" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="5">
@@ -2087,14 +2070,14 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>15</v>
+      <c r="B17" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5">
+        <v>150</v>
+      </c>
+      <c r="D17" s="5">
+        <v>30</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>15</v>
@@ -2107,7 +2090,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -2127,7 +2110,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -2147,7 +2130,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -2167,7 +2150,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2187,7 +2170,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -2207,7 +2190,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -2227,7 +2210,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -2247,7 +2230,7 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -2267,7 +2250,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -2287,7 +2270,7 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -2307,7 +2290,7 @@
       </c>
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -2327,7 +2310,7 @@
       </c>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -2347,7 +2330,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -2382,38 +2365,38 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="H5:HI30">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>H$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="11">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:BO31">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:HI4">
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>H$4=időszak_kiválasztva</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Gantt_projektterv.xlsx
+++ b/Gantt_projektterv.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF04B1D-212B-4B4A-9019-EFF2CCDEBF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34FAFAD-81FB-4E4F-B34C-A7A8CBA3C1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,13 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
-  <si>
-    <t>Projekttervező</t>
-  </si>
-  <si>
-    <t>Válassza ki a kiemelendő időszakot a jobb oldalon.  A diagram jelmagyarázata következik.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="29">
   <si>
     <t>TEVÉKENYSÉG</t>
   </si>
@@ -175,27 +169,12 @@
     <t>Weboldal felépítés terv</t>
   </si>
   <si>
-    <t>Landing page</t>
-  </si>
-  <si>
     <t>Adatbázis</t>
   </si>
   <si>
-    <t>Webshop kidolgozássa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkout </t>
-  </si>
-  <si>
     <t>Blog</t>
   </si>
   <si>
-    <t>Tapestry alap</t>
-  </si>
-  <si>
-    <t>Tapestry Adv.</t>
-  </si>
-  <si>
     <t>Bejelentkezés</t>
   </si>
   <si>
@@ -206,6 +185,24 @@
   </si>
   <si>
     <t>Prezentáció</t>
+  </si>
+  <si>
+    <t>13_S1_4_vizsgaremek projektterv</t>
+  </si>
+  <si>
+    <t>Főoldal</t>
+  </si>
+  <si>
+    <t>Webáruház kidolgozássa</t>
+  </si>
+  <si>
+    <t>Fizetés</t>
+  </si>
+  <si>
+    <t>Mintakészítő alap</t>
+  </si>
+  <si>
+    <t>Mintakészítő fejlesztett</t>
   </si>
 </sst>
 </file>
@@ -528,7 +525,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -592,12 +589,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -654,6 +645,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1064,16 +1067,16 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:HI30"/>
+  <dimension ref="A1:HI30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="19" style="24" customWidth="1"/>
+    <col min="2" max="2" width="19" style="22" customWidth="1"/>
     <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
@@ -1082,94 +1085,94 @@
     <col min="8" max="27" width="3.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:217" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11"/>
+    <row r="1" spans="1:217" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="40"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="2:217" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+    <row r="2" spans="1:217" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H2" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" s="13"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="35"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="37"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" s="41"/>
+      <c r="X2" s="39"/>
       <c r="Y2" s="20"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="39"/>
+      <c r="AA2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="37"/>
       <c r="AH2" s="17"/>
-      <c r="AI2" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-    </row>
-    <row r="3" spans="2:217" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="AI2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+    </row>
+    <row r="3" spans="1:217" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="E3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="F3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="34" t="s">
-        <v>8</v>
-      </c>
       <c r="H3" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
@@ -1191,13 +1194,13 @@
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
     </row>
-    <row r="4" spans="2:217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+    <row r="4" spans="1:217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="2">
         <v>1</v>
       </c>
@@ -1829,9 +1832,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
-        <v>16</v>
+    <row r="5" spans="1:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -1842,16 +1845,16 @@
       <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="5">
+        <v>28</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="21" t="s">
         <v>15</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
-        <v>17</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -1860,18 +1863,18 @@
         <v>28</v>
       </c>
       <c r="E6" s="5">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>28</v>
       </c>
       <c r="G6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
-        <v>18</v>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="5">
         <v>28</v>
@@ -1880,38 +1883,38 @@
         <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="25">
+    <row r="8" spans="1:217" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="23">
         <v>28</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="23">
         <v>21</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
-        <v>19</v>
+    <row r="9" spans="1:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="5">
         <v>36</v>
@@ -1920,38 +1923,38 @@
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
-        <v>21</v>
+    <row r="10" spans="1:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="5">
         <v>48</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="25">
         <v>50</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="26" t="s">
-        <v>22</v>
+    <row r="11" spans="1:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="5">
         <v>75</v>
@@ -1960,18 +1963,18 @@
         <v>18</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
-        <v>23</v>
+    <row r="12" spans="1:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="C12" s="5">
         <v>48</v>
@@ -1980,18 +1983,18 @@
         <v>32</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="26" t="s">
-        <v>24</v>
+    <row r="13" spans="1:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="24" t="s">
+        <v>27</v>
       </c>
       <c r="C13" s="5">
         <v>60</v>
@@ -2000,18 +2003,18 @@
         <v>30</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
-        <v>25</v>
+    <row r="14" spans="1:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="C14" s="5">
         <v>90</v>
@@ -2020,18 +2023,18 @@
         <v>40</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="26" t="s">
-        <v>26</v>
+    <row r="15" spans="1:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <v>104</v>
@@ -2040,18 +2043,18 @@
         <v>12</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
-        <v>27</v>
+    <row r="16" spans="1:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="5">
         <v>116</v>
@@ -2060,18 +2063,18 @@
         <v>10</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
-        <v>29</v>
+      <c r="B17" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="C17" s="5">
         <v>150</v>
@@ -2080,270 +2083,270 @@
         <v>30</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="23" t="s">
-        <v>15</v>
+      <c r="B18" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
-        <v>15</v>
+      <c r="B19" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
-        <v>15</v>
+      <c r="B20" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
-        <v>15</v>
+      <c r="B21" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
-        <v>15</v>
+      <c r="B22" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G22" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
-        <v>15</v>
+      <c r="B23" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G23" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
-        <v>15</v>
+      <c r="B24" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G24" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
-        <v>15</v>
+      <c r="B25" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G25" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="23" t="s">
-        <v>15</v>
+      <c r="B26" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G26" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="23" t="s">
-        <v>15</v>
+      <c r="B27" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G27" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
-        <v>15</v>
+      <c r="B28" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G28" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="s">
-        <v>15</v>
+      <c r="B29" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G29" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
-        <v>15</v>
+      <c r="B30" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G30" s="6">
         <v>0</v>
